--- a/Projekt/naloga1.xlsx
+++ b/Projekt/naloga1.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klaragolob/Documents/FAKS/Statistika/11_sem_nal_Klara_Golob/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klaragolob/Documents/FAKS/Statistika/Statistika---seminarska-naloga/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0702C-17D0-674B-B3CA-7A91933E0931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C75C9D5-8BD1-7847-871B-076C36099C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Intervali_zaupanja" sheetId="3" r:id="rId1"/>
-    <sheet name="intervali_zaupanja2" sheetId="4" r:id="rId2"/>
+    <sheet name="Intervali_zaupanja800" sheetId="3" r:id="rId1"/>
+    <sheet name="intervali_zaupanja200" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="delezi_800" localSheetId="0">Intervali_zaupanja!$A$1:$B$101</definedName>
-    <definedName name="delezi_800" localSheetId="1">intervali_zaupanja2!$A$1:$B$101</definedName>
+    <definedName name="delezi_800" localSheetId="1">intervali_zaupanja200!$A$1:$B$101</definedName>
+    <definedName name="delezi_800" localSheetId="0">Intervali_zaupanja800!$A$1:$B$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,8 +147,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Intervali zaupanja</a:t>
+              <a:t>Intervali zaupanja za</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vzorce velikosti 800</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -156,7 +161,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.008305042569453E-2"/>
+          <c:y val="0.12950926148081907"/>
+          <c:w val="0.94439776221538896"/>
+          <c:h val="0.84247436521958297"/>
+        </c:manualLayout>
+      </c:layout>
       <c:stockChart>
         <c:ser>
           <c:idx val="0"/>
@@ -174,309 +189,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Intervali_zaupanja!$A$2:$A$101</c:f>
+              <c:f>Intervali_zaupanja800!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.07295404567445</c:v>
+                  <c:v>0.98324374388482805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2693506485018</c:v>
+                  <c:v>1.0676590406113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.13735952923754</c:v>
+                  <c:v>1.0154143254742101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99612210921632505</c:v>
+                  <c:v>0.94531111024882297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99424860169857499</c:v>
+                  <c:v>1.0957597336243501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19986356871623</c:v>
+                  <c:v>1.01431626418927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2220964992047101</c:v>
+                  <c:v>0.95518862335212895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1021217206284499</c:v>
+                  <c:v>0.96334623513353101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99628182098543105</c:v>
+                  <c:v>1.02664052917036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2905470121706499</c:v>
+                  <c:v>1.05637312287882</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1353250737568199</c:v>
+                  <c:v>1.0127315335937299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1958846016018601</c:v>
+                  <c:v>1.0352324516912601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0682147678657601</c:v>
+                  <c:v>1.0947451868992699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0044406111953901</c:v>
+                  <c:v>0.97387009993191098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92249597124975602</c:v>
+                  <c:v>1.0304742489404399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1547669543849099</c:v>
+                  <c:v>1.02912386295626</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.21590742423653</c:v>
+                  <c:v>0.96570521578269797</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96333254350241504</c:v>
+                  <c:v>1.00022602051808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98528016982821698</c:v>
+                  <c:v>1.03768852769897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.02595211467961</c:v>
+                  <c:v>1.02836047369584</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1568596213951901</c:v>
+                  <c:v>1.0588449413419301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94861807610847104</c:v>
+                  <c:v>1.0367158438825601</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.20583686213798</c:v>
+                  <c:v>1.00667574628193</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.07252189813609</c:v>
+                  <c:v>0.97336615195752896</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1246917649847701</c:v>
+                  <c:v>1.0542247949133701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2413034009986901</c:v>
+                  <c:v>1.02025962262203</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.09506838587908</c:v>
+                  <c:v>1.0455668136996801</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2761326382054199</c:v>
+                  <c:v>1.0263774739121201</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.04094155077016</c:v>
+                  <c:v>1.0228163783864701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0688374554732301</c:v>
+                  <c:v>1.0810855683629399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.09940656435326</c:v>
+                  <c:v>1.07540776604872</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.06362259627953</c:v>
+                  <c:v>1.0530594450633499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1044406111953899</c:v>
+                  <c:v>0.99991188605242598</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.29575518931036</c:v>
+                  <c:v>1.0318906511169801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.95464386613585905</c:v>
+                  <c:v>1.00309502773818</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2021000361251899</c:v>
+                  <c:v>1.05158638268841</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1157289484981301</c:v>
+                  <c:v>1.0193730119787601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1299916310993601</c:v>
+                  <c:v>0.89919188335980105</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0379862526091299</c:v>
+                  <c:v>1.0240187343568701</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2171503504689201</c:v>
+                  <c:v>1.10272678442876</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1647727563446799</c:v>
+                  <c:v>0.997486262215599</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.95582713826103805</c:v>
+                  <c:v>1.06887501645143</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.97068718816352195</c:v>
+                  <c:v>1.0343256813086299</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.96149108961867502</c:v>
+                  <c:v>0.97836047369583901</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.03502665549204</c:v>
+                  <c:v>1.01638576422003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.13710404719836</c:v>
+                  <c:v>0.98872936983883397</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2058370579917601</c:v>
+                  <c:v>1.01173320399386</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.05765687381648</c:v>
+                  <c:v>0.90153723540636899</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.04631104610339</c:v>
+                  <c:v>1.06142142124716</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1804816656733801</c:v>
+                  <c:v>1.0079478858612301</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.15821217239902</c:v>
+                  <c:v>1.0459558963811699</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.13172081806358</c:v>
+                  <c:v>1.04926980494689</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2272596637301101</c:v>
+                  <c:v>0.98657744077472997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.91350573172662497</c:v>
+                  <c:v>1.02369139345476</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.16125407141373</c:v>
+                  <c:v>0.95601471752681</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1879649830726999</c:v>
+                  <c:v>1.0744434327602499</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.1019444369798601</c:v>
+                  <c:v>0.92769627069743799</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.1239197725777199</c:v>
+                  <c:v>1.0189269531591301</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2138915277223199</c:v>
+                  <c:v>1.01490998411504</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5138799118961901</c:v>
+                  <c:v>1.0245758675577901</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0737192522323</c:v>
+                  <c:v>1.03413786100061</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.15831438761967</c:v>
+                  <c:v>0.96853289315632596</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.17575467252683</c:v>
+                  <c:v>0.99299152432109405</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.08652072971543</c:v>
+                  <c:v>1.02736944562496</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.0333969784845001</c:v>
+                  <c:v>1.0290014998449699</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0943153634407901</c:v>
+                  <c:v>1.00174673286956</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1969519054646101</c:v>
+                  <c:v>0.95959554779516099</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1253140510681301</c:v>
+                  <c:v>1.07237206898083</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2070214629364999</c:v>
+                  <c:v>1.02212809718049</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.98090907143588402</c:v>
+                  <c:v>1.0748912231457599</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.11982854675218</c:v>
+                  <c:v>1.0080617536283001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.13172081806358</c:v>
+                  <c:v>1.0998840705399999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99590115265120305</c:v>
+                  <c:v>1.0584162064887199</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0481351826030401</c:v>
+                  <c:v>1.0118654855610101</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1474140155820001</c:v>
+                  <c:v>0.95388000699124997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.06569829008612</c:v>
+                  <c:v>1.02304323113886</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0971153112558201</c:v>
+                  <c:v>1.0650240880720001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.07832579857545</c:v>
+                  <c:v>1.0617580800472399</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.17111980617289</c:v>
+                  <c:v>1.01505100011219</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0320112811118001</c:v>
+                  <c:v>1.0964867533807101</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.98378300236223104</c:v>
+                  <c:v>1.0544805956288701</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1101023879605301</c:v>
+                  <c:v>0.96573731031335097</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.11051130343251</c:v>
+                  <c:v>0.96727221258221496</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.95272887397943196</c:v>
+                  <c:v>1.03486437045837</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.18235037661009</c:v>
+                  <c:v>1.06059165858431</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.0856229375969999</c:v>
+                  <c:v>1.0180596108733899</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.17742607410918</c:v>
+                  <c:v>0.97412414686557303</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.04418084432258</c:v>
+                  <c:v>1.0430801725785701</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.21952020503976</c:v>
+                  <c:v>0.99717507377805703</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1670720101323699</c:v>
+                  <c:v>1.07797052974968</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2210405054833999</c:v>
+                  <c:v>0.965554367727542</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.1551826566461401</c:v>
+                  <c:v>0.97988247868519096</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.1057776087084601</c:v>
+                  <c:v>1.0398031046713601</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1235147528099301</c:v>
+                  <c:v>1.0626613883071701</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1187686791276299</c:v>
+                  <c:v>1.1128663747155401</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.03320459445402</c:v>
+                  <c:v>0.99891799318107299</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0403217208919799</c:v>
+                  <c:v>1.0780333217284901</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.24600083374079</c:v>
+                  <c:v>1.0526390229057101</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.04159513585218</c:v>
+                  <c:v>1.01209513637018</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.1715938011854199</c:v>
+                  <c:v>1.06814921318508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,7 +508,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Intervali_zaupanja!$B$1</c:f>
+              <c:f>Intervali_zaupanja800!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,309 +527,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Intervali_zaupanja!$B$2:$B$101</c:f>
+              <c:f>Intervali_zaupanja800!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.767045954325555</c:v>
+                  <c:v>0.82925625611517195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93064935149819605</c:v>
+                  <c:v>0.89984095938870101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79264047076245903</c:v>
+                  <c:v>0.86458567452579105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67387789078367499</c:v>
+                  <c:v>0.79468888975117702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68575139830142495</c:v>
+                  <c:v>0.936740266375651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86013643128377204</c:v>
+                  <c:v>0.85318373581072504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90790350079529403</c:v>
+                  <c:v>0.807311376647871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76787827937155495</c:v>
+                  <c:v>0.80915376486646895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71371817901456902</c:v>
+                  <c:v>0.86585947082964498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93945298782935005</c:v>
+                  <c:v>0.89112687712118199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81467492624318405</c:v>
+                  <c:v>0.85226846640626897</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87411539839814001</c:v>
+                  <c:v>0.87476754830873504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76178523213423999</c:v>
+                  <c:v>0.930254813100727</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69555938880461299</c:v>
+                  <c:v>0.82612990006808895</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.64750402875024404</c:v>
+                  <c:v>0.87202575105955804</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.82523304561508803</c:v>
+                  <c:v>0.87337613704374295</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86409257576347398</c:v>
+                  <c:v>0.80929478421730205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.66666745649758496</c:v>
+                  <c:v>0.84477397948192401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67471983017178305</c:v>
+                  <c:v>0.87481147230102796</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.69404788532038797</c:v>
+                  <c:v>0.87163952630416097</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.81314037860480703</c:v>
+                  <c:v>0.89865505865806805</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.63138192389152903</c:v>
+                  <c:v>0.88328415611743505</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.87416313786202005</c:v>
+                  <c:v>0.84832425371807096</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75747810186390596</c:v>
+                  <c:v>0.82413384804247103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.80530823501523496</c:v>
+                  <c:v>0.89077520508663299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92869659900130697</c:v>
+                  <c:v>0.85974037737796505</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76493161412091704</c:v>
+                  <c:v>0.88193318630031703</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91386736179458095</c:v>
+                  <c:v>0.86862252608788404</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.74905844922984199</c:v>
+                  <c:v>0.86718362161353202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.76116254452676801</c:v>
+                  <c:v>0.92391443163706</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.80059343564673702</c:v>
+                  <c:v>0.91959223395127598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.74637740372046602</c:v>
+                  <c:v>0.88444055493664597</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.79555938880461297</c:v>
+                  <c:v>0.84758811394757405</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94424481068964305</c:v>
+                  <c:v>0.86810934888302305</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.63535613386414103</c:v>
+                  <c:v>0.84440497226181599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.85789996387480805</c:v>
+                  <c:v>0.89341361731159197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.80427105150186995</c:v>
+                  <c:v>0.86812698802124399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.80000836890063598</c:v>
+                  <c:v>0.75580811664019898</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.71201374739086698</c:v>
+                  <c:v>0.86598126564313105</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.91284964953108005</c:v>
+                  <c:v>0.93477321557123805</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.83522724365532197</c:v>
+                  <c:v>0.84251373778440097</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.64417286173896204</c:v>
+                  <c:v>0.90112498354857296</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.66931281183647795</c:v>
+                  <c:v>0.87067431869136502</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.688508910381325</c:v>
+                  <c:v>0.82163952630416104</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.71497334450795802</c:v>
+                  <c:v>0.85611423577997203</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.81289595280163995</c:v>
+                  <c:v>0.83377063016116604</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.88416294200824297</c:v>
+                  <c:v>0.85076679600614402</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.74234312618352405</c:v>
+                  <c:v>0.75346276459363104</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.73368895389660604</c:v>
+                  <c:v>0.90107857875284403</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.86951833432661696</c:v>
+                  <c:v>0.84455211413877196</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.82178782760097702</c:v>
+                  <c:v>0.88654410361883396</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.798279181936424</c:v>
+                  <c:v>0.88823019505311296</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.88274033626989401</c:v>
+                  <c:v>0.82842255922526997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.62649426827337495</c:v>
+                  <c:v>0.86380860654523905</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.83874592858627295</c:v>
+                  <c:v>0.81148528247318996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.88203501692730202</c:v>
+                  <c:v>0.91305656723975304</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.79805556302014402</c:v>
+                  <c:v>0.76730372930256197</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.81608022742228303</c:v>
+                  <c:v>0.86107304684086605</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.85610847227768005</c:v>
+                  <c:v>0.86009001588496004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.09612008810381</c:v>
+                  <c:v>0.857924132442209</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.74628074776769904</c:v>
+                  <c:v>0.87836213899939197</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.83168561238033201</c:v>
+                  <c:v>0.81396710684367402</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.83424532747316804</c:v>
+                  <c:v>0.83950847567890596</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.78347927028457398</c:v>
+                  <c:v>0.87013055437504105</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.73660302151550505</c:v>
+                  <c:v>0.86849850015503105</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.75568463655921003</c:v>
+                  <c:v>0.84575326713043797</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.88304809453538602</c:v>
+                  <c:v>0.80790445220483997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.77468594893186604</c:v>
+                  <c:v>0.915127931019175</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.88297853706350005</c:v>
+                  <c:v>0.86537190281951404</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.67909092856411601</c:v>
+                  <c:v>0.91010877685424496</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.81017145324782502</c:v>
+                  <c:v>0.85443824637170096</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.798279181936424</c:v>
+                  <c:v>0.935115929459998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.69409884734879701</c:v>
+                  <c:v>0.88908379351127698</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.73186481739695997</c:v>
+                  <c:v>0.85813451443899402</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.84258598441800203</c:v>
+                  <c:v>0.80111999300875003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.76430170991388302</c:v>
+                  <c:v>0.86695676886113804</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.75288468874418502</c:v>
+                  <c:v>0.90997591192800298</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.74167420142455098</c:v>
+                  <c:v>0.90824191995275805</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.85888019382710501</c:v>
+                  <c:v>0.85744899988781498</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.71798871888819804</c:v>
+                  <c:v>0.92601324661928797</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.686216997637769</c:v>
+                  <c:v>0.89801940437113303</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.80989761203946697</c:v>
+                  <c:v>0.816762689686649</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.78948869656748899</c:v>
+                  <c:v>0.81772778741778496</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.64727112602056802</c:v>
+                  <c:v>0.87513562954163304</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.84764962338990701</c:v>
+                  <c:v>0.89690834141569098</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.76437706240300396</c:v>
+                  <c:v>0.85444038912661302</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.83257392589081702</c:v>
+                  <c:v>0.82837585313442696</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.74581915567741897</c:v>
+                  <c:v>0.88441982742142899</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.87047979496023697</c:v>
+                  <c:v>0.84032492622194299</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.81292798986763404</c:v>
+                  <c:v>0.91952947025031695</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.89895949451660195</c:v>
+                  <c:v>0.80944563227245703</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.81481734335385603</c:v>
+                  <c:v>0.82761752131480903</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.78422239129153704</c:v>
+                  <c:v>0.88019689532863699</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.79648524719007197</c:v>
+                  <c:v>0.89983861169283397</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.80123132087236903</c:v>
+                  <c:v>0.94713362528445599</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.70679540554597697</c:v>
+                  <c:v>0.84108200681892697</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.72967827910801897</c:v>
+                  <c:v>0.91196667827151301</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.90399916625920695</c:v>
+                  <c:v>0.88486097709428901</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.74840486414782204</c:v>
+                  <c:v>0.85790486362981699</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.828406198814581</c:v>
+                  <c:v>0.89935078681492098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,12 +859,12 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="120889344"/>
-        <c:crosses val="autoZero"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -859,6 +874,7 @@
         <c:axId val="120889344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -867,6 +883,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="3970048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -909,7 +939,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Intervali zaupanja</a:t>
+              <a:t>Intervali zaupanja za vzorce velikosti 200</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -936,309 +966,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Intervali_zaupanja!$A$2:$A$101</c:f>
+              <c:f>Intervali_zaupanja800!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.07295404567445</c:v>
+                  <c:v>0.98324374388482805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2693506485018</c:v>
+                  <c:v>1.0676590406113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.13735952923754</c:v>
+                  <c:v>1.0154143254742101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99612210921632505</c:v>
+                  <c:v>0.94531111024882297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99424860169857499</c:v>
+                  <c:v>1.0957597336243501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19986356871623</c:v>
+                  <c:v>1.01431626418927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2220964992047101</c:v>
+                  <c:v>0.95518862335212895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1021217206284499</c:v>
+                  <c:v>0.96334623513353101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99628182098543105</c:v>
+                  <c:v>1.02664052917036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2905470121706499</c:v>
+                  <c:v>1.05637312287882</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1353250737568199</c:v>
+                  <c:v>1.0127315335937299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1958846016018601</c:v>
+                  <c:v>1.0352324516912601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0682147678657601</c:v>
+                  <c:v>1.0947451868992699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0044406111953901</c:v>
+                  <c:v>0.97387009993191098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92249597124975602</c:v>
+                  <c:v>1.0304742489404399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1547669543849099</c:v>
+                  <c:v>1.02912386295626</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.21590742423653</c:v>
+                  <c:v>0.96570521578269797</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96333254350241504</c:v>
+                  <c:v>1.00022602051808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98528016982821698</c:v>
+                  <c:v>1.03768852769897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.02595211467961</c:v>
+                  <c:v>1.02836047369584</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1568596213951901</c:v>
+                  <c:v>1.0588449413419301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94861807610847104</c:v>
+                  <c:v>1.0367158438825601</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.20583686213798</c:v>
+                  <c:v>1.00667574628193</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.07252189813609</c:v>
+                  <c:v>0.97336615195752896</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1246917649847701</c:v>
+                  <c:v>1.0542247949133701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2413034009986901</c:v>
+                  <c:v>1.02025962262203</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.09506838587908</c:v>
+                  <c:v>1.0455668136996801</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2761326382054199</c:v>
+                  <c:v>1.0263774739121201</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.04094155077016</c:v>
+                  <c:v>1.0228163783864701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0688374554732301</c:v>
+                  <c:v>1.0810855683629399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.09940656435326</c:v>
+                  <c:v>1.07540776604872</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.06362259627953</c:v>
+                  <c:v>1.0530594450633499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1044406111953899</c:v>
+                  <c:v>0.99991188605242598</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.29575518931036</c:v>
+                  <c:v>1.0318906511169801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.95464386613585905</c:v>
+                  <c:v>1.00309502773818</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2021000361251899</c:v>
+                  <c:v>1.05158638268841</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1157289484981301</c:v>
+                  <c:v>1.0193730119787601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1299916310993601</c:v>
+                  <c:v>0.89919188335980105</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0379862526091299</c:v>
+                  <c:v>1.0240187343568701</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2171503504689201</c:v>
+                  <c:v>1.10272678442876</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1647727563446799</c:v>
+                  <c:v>0.997486262215599</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.95582713826103805</c:v>
+                  <c:v>1.06887501645143</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.97068718816352195</c:v>
+                  <c:v>1.0343256813086299</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.96149108961867502</c:v>
+                  <c:v>0.97836047369583901</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.03502665549204</c:v>
+                  <c:v>1.01638576422003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.13710404719836</c:v>
+                  <c:v>0.98872936983883397</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2058370579917601</c:v>
+                  <c:v>1.01173320399386</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.05765687381648</c:v>
+                  <c:v>0.90153723540636899</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.04631104610339</c:v>
+                  <c:v>1.06142142124716</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1804816656733801</c:v>
+                  <c:v>1.0079478858612301</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.15821217239902</c:v>
+                  <c:v>1.0459558963811699</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.13172081806358</c:v>
+                  <c:v>1.04926980494689</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2272596637301101</c:v>
+                  <c:v>0.98657744077472997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.91350573172662497</c:v>
+                  <c:v>1.02369139345476</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.16125407141373</c:v>
+                  <c:v>0.95601471752681</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1879649830726999</c:v>
+                  <c:v>1.0744434327602499</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.1019444369798601</c:v>
+                  <c:v>0.92769627069743799</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.1239197725777199</c:v>
+                  <c:v>1.0189269531591301</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2138915277223199</c:v>
+                  <c:v>1.01490998411504</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5138799118961901</c:v>
+                  <c:v>1.0245758675577901</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0737192522323</c:v>
+                  <c:v>1.03413786100061</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.15831438761967</c:v>
+                  <c:v>0.96853289315632596</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.17575467252683</c:v>
+                  <c:v>0.99299152432109405</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.08652072971543</c:v>
+                  <c:v>1.02736944562496</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.0333969784845001</c:v>
+                  <c:v>1.0290014998449699</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0943153634407901</c:v>
+                  <c:v>1.00174673286956</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1969519054646101</c:v>
+                  <c:v>0.95959554779516099</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1253140510681301</c:v>
+                  <c:v>1.07237206898083</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2070214629364999</c:v>
+                  <c:v>1.02212809718049</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.98090907143588402</c:v>
+                  <c:v>1.0748912231457599</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.11982854675218</c:v>
+                  <c:v>1.0080617536283001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.13172081806358</c:v>
+                  <c:v>1.0998840705399999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99590115265120305</c:v>
+                  <c:v>1.0584162064887199</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0481351826030401</c:v>
+                  <c:v>1.0118654855610101</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1474140155820001</c:v>
+                  <c:v>0.95388000699124997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.06569829008612</c:v>
+                  <c:v>1.02304323113886</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0971153112558201</c:v>
+                  <c:v>1.0650240880720001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.07832579857545</c:v>
+                  <c:v>1.0617580800472399</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.17111980617289</c:v>
+                  <c:v>1.01505100011219</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0320112811118001</c:v>
+                  <c:v>1.0964867533807101</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.98378300236223104</c:v>
+                  <c:v>1.0544805956288701</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1101023879605301</c:v>
+                  <c:v>0.96573731031335097</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.11051130343251</c:v>
+                  <c:v>0.96727221258221496</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.95272887397943196</c:v>
+                  <c:v>1.03486437045837</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.18235037661009</c:v>
+                  <c:v>1.06059165858431</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.0856229375969999</c:v>
+                  <c:v>1.0180596108733899</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.17742607410918</c:v>
+                  <c:v>0.97412414686557303</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.04418084432258</c:v>
+                  <c:v>1.0430801725785701</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.21952020503976</c:v>
+                  <c:v>0.99717507377805703</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1670720101323699</c:v>
+                  <c:v>1.07797052974968</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2210405054833999</c:v>
+                  <c:v>0.965554367727542</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.1551826566461401</c:v>
+                  <c:v>0.97988247868519096</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.1057776087084601</c:v>
+                  <c:v>1.0398031046713601</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1235147528099301</c:v>
+                  <c:v>1.0626613883071701</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1187686791276299</c:v>
+                  <c:v>1.1128663747155401</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.03320459445402</c:v>
+                  <c:v>0.99891799318107299</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0403217208919799</c:v>
+                  <c:v>1.0780333217284901</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.24600083374079</c:v>
+                  <c:v>1.0526390229057101</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.04159513585218</c:v>
+                  <c:v>1.01209513637018</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.1715938011854199</c:v>
+                  <c:v>1.06814921318508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,7 +1285,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Intervali_zaupanja!$B$1</c:f>
+              <c:f>Intervali_zaupanja800!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1274,309 +1304,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Intervali_zaupanja!$B$2:$B$101</c:f>
+              <c:f>Intervali_zaupanja800!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.767045954325555</c:v>
+                  <c:v>0.82925625611517195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93064935149819605</c:v>
+                  <c:v>0.89984095938870101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79264047076245903</c:v>
+                  <c:v>0.86458567452579105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67387789078367499</c:v>
+                  <c:v>0.79468888975117702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68575139830142495</c:v>
+                  <c:v>0.936740266375651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86013643128377204</c:v>
+                  <c:v>0.85318373581072504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90790350079529403</c:v>
+                  <c:v>0.807311376647871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76787827937155495</c:v>
+                  <c:v>0.80915376486646895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71371817901456902</c:v>
+                  <c:v>0.86585947082964498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93945298782935005</c:v>
+                  <c:v>0.89112687712118199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81467492624318405</c:v>
+                  <c:v>0.85226846640626897</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87411539839814001</c:v>
+                  <c:v>0.87476754830873504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76178523213423999</c:v>
+                  <c:v>0.930254813100727</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69555938880461299</c:v>
+                  <c:v>0.82612990006808895</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.64750402875024404</c:v>
+                  <c:v>0.87202575105955804</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.82523304561508803</c:v>
+                  <c:v>0.87337613704374295</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86409257576347398</c:v>
+                  <c:v>0.80929478421730205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.66666745649758496</c:v>
+                  <c:v>0.84477397948192401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67471983017178305</c:v>
+                  <c:v>0.87481147230102796</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.69404788532038797</c:v>
+                  <c:v>0.87163952630416097</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.81314037860480703</c:v>
+                  <c:v>0.89865505865806805</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.63138192389152903</c:v>
+                  <c:v>0.88328415611743505</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.87416313786202005</c:v>
+                  <c:v>0.84832425371807096</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75747810186390596</c:v>
+                  <c:v>0.82413384804247103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.80530823501523496</c:v>
+                  <c:v>0.89077520508663299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92869659900130697</c:v>
+                  <c:v>0.85974037737796505</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76493161412091704</c:v>
+                  <c:v>0.88193318630031703</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91386736179458095</c:v>
+                  <c:v>0.86862252608788404</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.74905844922984199</c:v>
+                  <c:v>0.86718362161353202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.76116254452676801</c:v>
+                  <c:v>0.92391443163706</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.80059343564673702</c:v>
+                  <c:v>0.91959223395127598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.74637740372046602</c:v>
+                  <c:v>0.88444055493664597</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.79555938880461297</c:v>
+                  <c:v>0.84758811394757405</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94424481068964305</c:v>
+                  <c:v>0.86810934888302305</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.63535613386414103</c:v>
+                  <c:v>0.84440497226181599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.85789996387480805</c:v>
+                  <c:v>0.89341361731159197</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.80427105150186995</c:v>
+                  <c:v>0.86812698802124399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.80000836890063598</c:v>
+                  <c:v>0.75580811664019898</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.71201374739086698</c:v>
+                  <c:v>0.86598126564313105</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.91284964953108005</c:v>
+                  <c:v>0.93477321557123805</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.83522724365532197</c:v>
+                  <c:v>0.84251373778440097</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.64417286173896204</c:v>
+                  <c:v>0.90112498354857296</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.66931281183647795</c:v>
+                  <c:v>0.87067431869136502</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.688508910381325</c:v>
+                  <c:v>0.82163952630416104</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.71497334450795802</c:v>
+                  <c:v>0.85611423577997203</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.81289595280163995</c:v>
+                  <c:v>0.83377063016116604</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.88416294200824297</c:v>
+                  <c:v>0.85076679600614402</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.74234312618352405</c:v>
+                  <c:v>0.75346276459363104</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.73368895389660604</c:v>
+                  <c:v>0.90107857875284403</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.86951833432661696</c:v>
+                  <c:v>0.84455211413877196</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.82178782760097702</c:v>
+                  <c:v>0.88654410361883396</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.798279181936424</c:v>
+                  <c:v>0.88823019505311296</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.88274033626989401</c:v>
+                  <c:v>0.82842255922526997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.62649426827337495</c:v>
+                  <c:v>0.86380860654523905</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.83874592858627295</c:v>
+                  <c:v>0.81148528247318996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.88203501692730202</c:v>
+                  <c:v>0.91305656723975304</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.79805556302014402</c:v>
+                  <c:v>0.76730372930256197</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.81608022742228303</c:v>
+                  <c:v>0.86107304684086605</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.85610847227768005</c:v>
+                  <c:v>0.86009001588496004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.09612008810381</c:v>
+                  <c:v>0.857924132442209</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.74628074776769904</c:v>
+                  <c:v>0.87836213899939197</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.83168561238033201</c:v>
+                  <c:v>0.81396710684367402</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.83424532747316804</c:v>
+                  <c:v>0.83950847567890596</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.78347927028457398</c:v>
+                  <c:v>0.87013055437504105</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.73660302151550505</c:v>
+                  <c:v>0.86849850015503105</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.75568463655921003</c:v>
+                  <c:v>0.84575326713043797</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.88304809453538602</c:v>
+                  <c:v>0.80790445220483997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.77468594893186604</c:v>
+                  <c:v>0.915127931019175</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.88297853706350005</c:v>
+                  <c:v>0.86537190281951404</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.67909092856411601</c:v>
+                  <c:v>0.91010877685424496</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.81017145324782502</c:v>
+                  <c:v>0.85443824637170096</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.798279181936424</c:v>
+                  <c:v>0.935115929459998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.69409884734879701</c:v>
+                  <c:v>0.88908379351127698</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.73186481739695997</c:v>
+                  <c:v>0.85813451443899402</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.84258598441800203</c:v>
+                  <c:v>0.80111999300875003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.76430170991388302</c:v>
+                  <c:v>0.86695676886113804</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.75288468874418502</c:v>
+                  <c:v>0.90997591192800298</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.74167420142455098</c:v>
+                  <c:v>0.90824191995275805</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.85888019382710501</c:v>
+                  <c:v>0.85744899988781498</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.71798871888819804</c:v>
+                  <c:v>0.92601324661928797</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.686216997637769</c:v>
+                  <c:v>0.89801940437113303</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.80989761203946697</c:v>
+                  <c:v>0.816762689686649</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.78948869656748899</c:v>
+                  <c:v>0.81772778741778496</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.64727112602056802</c:v>
+                  <c:v>0.87513562954163304</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.84764962338990701</c:v>
+                  <c:v>0.89690834141569098</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.76437706240300396</c:v>
+                  <c:v>0.85444038912661302</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.83257392589081702</c:v>
+                  <c:v>0.82837585313442696</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.74581915567741897</c:v>
+                  <c:v>0.88441982742142899</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.87047979496023697</c:v>
+                  <c:v>0.84032492622194299</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.81292798986763404</c:v>
+                  <c:v>0.91952947025031695</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.89895949451660195</c:v>
+                  <c:v>0.80944563227245703</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.81481734335385603</c:v>
+                  <c:v>0.82761752131480903</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.78422239129153704</c:v>
+                  <c:v>0.88019689532863699</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.79648524719007197</c:v>
+                  <c:v>0.89983861169283397</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.80123132087236903</c:v>
+                  <c:v>0.94713362528445599</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.70679540554597697</c:v>
+                  <c:v>0.84108200681892697</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.72967827910801897</c:v>
+                  <c:v>0.91196667827151301</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.90399916625920695</c:v>
+                  <c:v>0.88486097709428901</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.74840486414782204</c:v>
+                  <c:v>0.85790486362981699</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.828406198814581</c:v>
+                  <c:v>0.89935078681492098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,6 +1651,7 @@
         <c:axId val="120889344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1651,7 +1682,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>149860</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>181610</xdr:rowOff>
     </xdr:from>
@@ -1659,7 +1690,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>401320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1698,9 +1729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>401320</xdr:colOff>
+      <xdr:colOff>86360</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:rowOff>13970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2061,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2081,802 +2112,802 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.07295404567445</v>
+        <v>0.98324374388482805</v>
       </c>
       <c r="B2">
-        <v>0.767045954325555</v>
+        <v>0.82925625611517195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.2693506485018</v>
+        <v>1.0676590406113</v>
       </c>
       <c r="B3">
-        <v>0.93064935149819605</v>
+        <v>0.89984095938870101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.13735952923754</v>
+        <v>1.0154143254742101</v>
       </c>
       <c r="B4">
-        <v>0.79264047076245903</v>
+        <v>0.86458567452579105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.99612210921632505</v>
+        <v>0.94531111024882297</v>
       </c>
       <c r="B5">
-        <v>0.67387789078367499</v>
+        <v>0.79468888975117702</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.99424860169857499</v>
+        <v>1.0957597336243501</v>
       </c>
       <c r="B6">
-        <v>0.68575139830142495</v>
+        <v>0.936740266375651</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.19986356871623</v>
+        <v>1.01431626418927</v>
       </c>
       <c r="B7">
-        <v>0.86013643128377204</v>
+        <v>0.85318373581072504</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.2220964992047101</v>
+        <v>0.95518862335212895</v>
       </c>
       <c r="B8">
-        <v>0.90790350079529403</v>
+        <v>0.807311376647871</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.1021217206284499</v>
+        <v>0.96334623513353101</v>
       </c>
       <c r="B9">
-        <v>0.76787827937155495</v>
+        <v>0.80915376486646895</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.99628182098543105</v>
+        <v>1.02664052917036</v>
       </c>
       <c r="B10">
-        <v>0.71371817901456902</v>
+        <v>0.86585947082964498</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.2905470121706499</v>
+        <v>1.05637312287882</v>
       </c>
       <c r="B11">
-        <v>0.93945298782935005</v>
+        <v>0.89112687712118199</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1.1353250737568199</v>
+        <v>1.0127315335937299</v>
       </c>
       <c r="B12">
-        <v>0.81467492624318405</v>
+        <v>0.85226846640626897</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1.1958846016018601</v>
+        <v>1.0352324516912601</v>
       </c>
       <c r="B13">
-        <v>0.87411539839814001</v>
+        <v>0.87476754830873504</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1.0682147678657601</v>
+        <v>1.0947451868992699</v>
       </c>
       <c r="B14">
-        <v>0.76178523213423999</v>
+        <v>0.930254813100727</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1.0044406111953901</v>
+        <v>0.97387009993191098</v>
       </c>
       <c r="B15">
-        <v>0.69555938880461299</v>
+        <v>0.82612990006808895</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.92249597124975602</v>
+        <v>1.0304742489404399</v>
       </c>
       <c r="B16">
-        <v>0.64750402875024404</v>
+        <v>0.87202575105955804</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1.1547669543849099</v>
+        <v>1.02912386295626</v>
       </c>
       <c r="B17">
-        <v>0.82523304561508803</v>
+        <v>0.87337613704374295</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1.21590742423653</v>
+        <v>0.96570521578269797</v>
       </c>
       <c r="B18">
-        <v>0.86409257576347398</v>
+        <v>0.80929478421730205</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.96333254350241504</v>
+        <v>1.00022602051808</v>
       </c>
       <c r="B19">
-        <v>0.66666745649758496</v>
+        <v>0.84477397948192401</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.98528016982821698</v>
+        <v>1.03768852769897</v>
       </c>
       <c r="B20">
-        <v>0.67471983017178305</v>
+        <v>0.87481147230102796</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.02595211467961</v>
+        <v>1.02836047369584</v>
       </c>
       <c r="B21">
-        <v>0.69404788532038797</v>
+        <v>0.87163952630416097</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.1568596213951901</v>
+        <v>1.0588449413419301</v>
       </c>
       <c r="B22">
-        <v>0.81314037860480703</v>
+        <v>0.89865505865806805</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0.94861807610847104</v>
+        <v>1.0367158438825601</v>
       </c>
       <c r="B23">
-        <v>0.63138192389152903</v>
+        <v>0.88328415611743505</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1.20583686213798</v>
+        <v>1.00667574628193</v>
       </c>
       <c r="B24">
-        <v>0.87416313786202005</v>
+        <v>0.84832425371807096</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1.07252189813609</v>
+        <v>0.97336615195752896</v>
       </c>
       <c r="B25">
-        <v>0.75747810186390596</v>
+        <v>0.82413384804247103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1.1246917649847701</v>
+        <v>1.0542247949133701</v>
       </c>
       <c r="B26">
-        <v>0.80530823501523496</v>
+        <v>0.89077520508663299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1.2413034009986901</v>
+        <v>1.02025962262203</v>
       </c>
       <c r="B27">
-        <v>0.92869659900130697</v>
+        <v>0.85974037737796505</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1.09506838587908</v>
+        <v>1.0455668136996801</v>
       </c>
       <c r="B28">
-        <v>0.76493161412091704</v>
+        <v>0.88193318630031703</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1.2761326382054199</v>
+        <v>1.0263774739121201</v>
       </c>
       <c r="B29">
-        <v>0.91386736179458095</v>
+        <v>0.86862252608788404</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1.04094155077016</v>
+        <v>1.0228163783864701</v>
       </c>
       <c r="B30">
-        <v>0.74905844922984199</v>
+        <v>0.86718362161353202</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1.0688374554732301</v>
+        <v>1.0810855683629399</v>
       </c>
       <c r="B31">
-        <v>0.76116254452676801</v>
+        <v>0.92391443163706</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1.09940656435326</v>
+        <v>1.07540776604872</v>
       </c>
       <c r="B32">
-        <v>0.80059343564673702</v>
+        <v>0.91959223395127598</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1.06362259627953</v>
+        <v>1.0530594450633499</v>
       </c>
       <c r="B33">
-        <v>0.74637740372046602</v>
+        <v>0.88444055493664597</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1.1044406111953899</v>
+        <v>0.99991188605242598</v>
       </c>
       <c r="B34">
-        <v>0.79555938880461297</v>
+        <v>0.84758811394757405</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1.29575518931036</v>
+        <v>1.0318906511169801</v>
       </c>
       <c r="B35">
-        <v>0.94424481068964305</v>
+        <v>0.86810934888302305</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.95464386613585905</v>
+        <v>1.00309502773818</v>
       </c>
       <c r="B36">
-        <v>0.63535613386414103</v>
+        <v>0.84440497226181599</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1.2021000361251899</v>
+        <v>1.05158638268841</v>
       </c>
       <c r="B37">
-        <v>0.85789996387480805</v>
+        <v>0.89341361731159197</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1.1157289484981301</v>
+        <v>1.0193730119787601</v>
       </c>
       <c r="B38">
-        <v>0.80427105150186995</v>
+        <v>0.86812698802124399</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1.1299916310993601</v>
+        <v>0.89919188335980105</v>
       </c>
       <c r="B39">
-        <v>0.80000836890063598</v>
+        <v>0.75580811664019898</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1.0379862526091299</v>
+        <v>1.0240187343568701</v>
       </c>
       <c r="B40">
-        <v>0.71201374739086698</v>
+        <v>0.86598126564313105</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1.2171503504689201</v>
+        <v>1.10272678442876</v>
       </c>
       <c r="B41">
-        <v>0.91284964953108005</v>
+        <v>0.93477321557123805</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1.1647727563446799</v>
+        <v>0.997486262215599</v>
       </c>
       <c r="B42">
-        <v>0.83522724365532197</v>
+        <v>0.84251373778440097</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.95582713826103805</v>
+        <v>1.06887501645143</v>
       </c>
       <c r="B43">
-        <v>0.64417286173896204</v>
+        <v>0.90112498354857296</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0.97068718816352195</v>
+        <v>1.0343256813086299</v>
       </c>
       <c r="B44">
-        <v>0.66931281183647795</v>
+        <v>0.87067431869136502</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0.96149108961867502</v>
+        <v>0.97836047369583901</v>
       </c>
       <c r="B45">
-        <v>0.688508910381325</v>
+        <v>0.82163952630416104</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1.03502665549204</v>
+        <v>1.01638576422003</v>
       </c>
       <c r="B46">
-        <v>0.71497334450795802</v>
+        <v>0.85611423577997203</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1.13710404719836</v>
+        <v>0.98872936983883397</v>
       </c>
       <c r="B47">
-        <v>0.81289595280163995</v>
+        <v>0.83377063016116604</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1.2058370579917601</v>
+        <v>1.01173320399386</v>
       </c>
       <c r="B48">
-        <v>0.88416294200824297</v>
+        <v>0.85076679600614402</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1.05765687381648</v>
+        <v>0.90153723540636899</v>
       </c>
       <c r="B49">
-        <v>0.74234312618352405</v>
+        <v>0.75346276459363104</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1.04631104610339</v>
+        <v>1.06142142124716</v>
       </c>
       <c r="B50">
-        <v>0.73368895389660604</v>
+        <v>0.90107857875284403</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1.1804816656733801</v>
+        <v>1.0079478858612301</v>
       </c>
       <c r="B51">
-        <v>0.86951833432661696</v>
+        <v>0.84455211413877196</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1.15821217239902</v>
+        <v>1.0459558963811699</v>
       </c>
       <c r="B52">
-        <v>0.82178782760097702</v>
+        <v>0.88654410361883396</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1.13172081806358</v>
+        <v>1.04926980494689</v>
       </c>
       <c r="B53">
-        <v>0.798279181936424</v>
+        <v>0.88823019505311296</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1.2272596637301101</v>
+        <v>0.98657744077472997</v>
       </c>
       <c r="B54">
-        <v>0.88274033626989401</v>
+        <v>0.82842255922526997</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0.91350573172662497</v>
+        <v>1.02369139345476</v>
       </c>
       <c r="B55">
-        <v>0.62649426827337495</v>
+        <v>0.86380860654523905</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1.16125407141373</v>
+        <v>0.95601471752681</v>
       </c>
       <c r="B56">
-        <v>0.83874592858627295</v>
+        <v>0.81148528247318996</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1.1879649830726999</v>
+        <v>1.0744434327602499</v>
       </c>
       <c r="B57">
-        <v>0.88203501692730202</v>
+        <v>0.91305656723975304</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1.1019444369798601</v>
+        <v>0.92769627069743799</v>
       </c>
       <c r="B58">
-        <v>0.79805556302014402</v>
+        <v>0.76730372930256197</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1.1239197725777199</v>
+        <v>1.0189269531591301</v>
       </c>
       <c r="B59">
-        <v>0.81608022742228303</v>
+        <v>0.86107304684086605</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1.2138915277223199</v>
+        <v>1.01490998411504</v>
       </c>
       <c r="B60">
-        <v>0.85610847227768005</v>
+        <v>0.86009001588496004</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.5138799118961901</v>
+        <v>1.0245758675577901</v>
       </c>
       <c r="B61">
-        <v>1.09612008810381</v>
+        <v>0.857924132442209</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1.0737192522323</v>
+        <v>1.03413786100061</v>
       </c>
       <c r="B62">
-        <v>0.74628074776769904</v>
+        <v>0.87836213899939197</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1.15831438761967</v>
+        <v>0.96853289315632596</v>
       </c>
       <c r="B63">
-        <v>0.83168561238033201</v>
+        <v>0.81396710684367402</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1.17575467252683</v>
+        <v>0.99299152432109405</v>
       </c>
       <c r="B64">
-        <v>0.83424532747316804</v>
+        <v>0.83950847567890596</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1.08652072971543</v>
+        <v>1.02736944562496</v>
       </c>
       <c r="B65">
-        <v>0.78347927028457398</v>
+        <v>0.87013055437504105</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1.0333969784845001</v>
+        <v>1.0290014998449699</v>
       </c>
       <c r="B66">
-        <v>0.73660302151550505</v>
+        <v>0.86849850015503105</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1.0943153634407901</v>
+        <v>1.00174673286956</v>
       </c>
       <c r="B67">
-        <v>0.75568463655921003</v>
+        <v>0.84575326713043797</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1.1969519054646101</v>
+        <v>0.95959554779516099</v>
       </c>
       <c r="B68">
-        <v>0.88304809453538602</v>
+        <v>0.80790445220483997</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1.1253140510681301</v>
+        <v>1.07237206898083</v>
       </c>
       <c r="B69">
-        <v>0.77468594893186604</v>
+        <v>0.915127931019175</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1.2070214629364999</v>
+        <v>1.02212809718049</v>
       </c>
       <c r="B70">
-        <v>0.88297853706350005</v>
+        <v>0.86537190281951404</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0.98090907143588402</v>
+        <v>1.0748912231457599</v>
       </c>
       <c r="B71">
-        <v>0.67909092856411601</v>
+        <v>0.91010877685424496</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1.11982854675218</v>
+        <v>1.0080617536283001</v>
       </c>
       <c r="B72">
-        <v>0.81017145324782502</v>
+        <v>0.85443824637170096</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.13172081806358</v>
+        <v>1.0998840705399999</v>
       </c>
       <c r="B73">
-        <v>0.798279181936424</v>
+        <v>0.935115929459998</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0.99590115265120305</v>
+        <v>1.0584162064887199</v>
       </c>
       <c r="B74">
-        <v>0.69409884734879701</v>
+        <v>0.88908379351127698</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1.0481351826030401</v>
+        <v>1.0118654855610101</v>
       </c>
       <c r="B75">
-        <v>0.73186481739695997</v>
+        <v>0.85813451443899402</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1.1474140155820001</v>
+        <v>0.95388000699124997</v>
       </c>
       <c r="B76">
-        <v>0.84258598441800203</v>
+        <v>0.80111999300875003</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1.06569829008612</v>
+        <v>1.02304323113886</v>
       </c>
       <c r="B77">
-        <v>0.76430170991388302</v>
+        <v>0.86695676886113804</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1.0971153112558201</v>
+        <v>1.0650240880720001</v>
       </c>
       <c r="B78">
-        <v>0.75288468874418502</v>
+        <v>0.90997591192800298</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1.07832579857545</v>
+        <v>1.0617580800472399</v>
       </c>
       <c r="B79">
-        <v>0.74167420142455098</v>
+        <v>0.90824191995275805</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1.17111980617289</v>
+        <v>1.01505100011219</v>
       </c>
       <c r="B80">
-        <v>0.85888019382710501</v>
+        <v>0.85744899988781498</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1.0320112811118001</v>
+        <v>1.0964867533807101</v>
       </c>
       <c r="B81">
-        <v>0.71798871888819804</v>
+        <v>0.92601324661928797</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.98378300236223104</v>
+        <v>1.0544805956288701</v>
       </c>
       <c r="B82">
-        <v>0.686216997637769</v>
+        <v>0.89801940437113303</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1.1101023879605301</v>
+        <v>0.96573731031335097</v>
       </c>
       <c r="B83">
-        <v>0.80989761203946697</v>
+        <v>0.816762689686649</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1.11051130343251</v>
+        <v>0.96727221258221496</v>
       </c>
       <c r="B84">
-        <v>0.78948869656748899</v>
+        <v>0.81772778741778496</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0.95272887397943196</v>
+        <v>1.03486437045837</v>
       </c>
       <c r="B85">
-        <v>0.64727112602056802</v>
+        <v>0.87513562954163304</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1.18235037661009</v>
+        <v>1.06059165858431</v>
       </c>
       <c r="B86">
-        <v>0.84764962338990701</v>
+        <v>0.89690834141569098</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1.0856229375969999</v>
+        <v>1.0180596108733899</v>
       </c>
       <c r="B87">
-        <v>0.76437706240300396</v>
+        <v>0.85444038912661302</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1.17742607410918</v>
+        <v>0.97412414686557303</v>
       </c>
       <c r="B88">
-        <v>0.83257392589081702</v>
+        <v>0.82837585313442696</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1.04418084432258</v>
+        <v>1.0430801725785701</v>
       </c>
       <c r="B89">
-        <v>0.74581915567741897</v>
+        <v>0.88441982742142899</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1.21952020503976</v>
+        <v>0.99717507377805703</v>
       </c>
       <c r="B90">
-        <v>0.87047979496023697</v>
+        <v>0.84032492622194299</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1.1670720101323699</v>
+        <v>1.07797052974968</v>
       </c>
       <c r="B91">
-        <v>0.81292798986763404</v>
+        <v>0.91952947025031695</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1.2210405054833999</v>
+        <v>0.965554367727542</v>
       </c>
       <c r="B92">
-        <v>0.89895949451660195</v>
+        <v>0.80944563227245703</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1.1551826566461401</v>
+        <v>0.97988247868519096</v>
       </c>
       <c r="B93">
-        <v>0.81481734335385603</v>
+        <v>0.82761752131480903</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1.1057776087084601</v>
+        <v>1.0398031046713601</v>
       </c>
       <c r="B94">
-        <v>0.78422239129153704</v>
+        <v>0.88019689532863699</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1.1235147528099301</v>
+        <v>1.0626613883071701</v>
       </c>
       <c r="B95">
-        <v>0.79648524719007197</v>
+        <v>0.89983861169283397</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1.1187686791276299</v>
+        <v>1.1128663747155401</v>
       </c>
       <c r="B96">
-        <v>0.80123132087236903</v>
+        <v>0.94713362528445599</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1.03320459445402</v>
+        <v>0.99891799318107299</v>
       </c>
       <c r="B97">
-        <v>0.70679540554597697</v>
+        <v>0.84108200681892697</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1.0403217208919799</v>
+        <v>1.0780333217284901</v>
       </c>
       <c r="B98">
-        <v>0.72967827910801897</v>
+        <v>0.91196667827151301</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1.24600083374079</v>
+        <v>1.0526390229057101</v>
       </c>
       <c r="B99">
-        <v>0.90399916625920695</v>
+        <v>0.88486097709428901</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1.04159513585218</v>
+        <v>1.01209513637018</v>
       </c>
       <c r="B100">
-        <v>0.74840486414782204</v>
+        <v>0.85790486362981699</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1.1715938011854199</v>
+        <v>1.06814921318508</v>
       </c>
       <c r="B101">
-        <v>0.828406198814581</v>
+        <v>0.89935078681492098</v>
       </c>
     </row>
   </sheetData>
@@ -2889,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF65117-ACE2-DD4E-BAB7-ACCB5C081B20}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2909,802 +2940,802 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.0466918248754</v>
+        <v>1.1735643786479499</v>
       </c>
       <c r="B2">
-        <v>0.88580817512459797</v>
+        <v>0.876435621352052</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.99145513312621303</v>
+        <v>1.1782379207754301</v>
       </c>
       <c r="B3">
-        <v>0.83354486687378704</v>
+        <v>0.86176207922457004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.0491965863884101</v>
+        <v>1.1460164886083699</v>
       </c>
       <c r="B4">
-        <v>0.88830341361158505</v>
+        <v>0.78398351139162803</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.14161007058234</v>
+        <v>1.1080131416829899</v>
       </c>
       <c r="B5">
-        <v>0.97088992941765995</v>
+        <v>0.77198685831701497</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.0352645859844201</v>
+        <v>1.1605185526470401</v>
       </c>
       <c r="B6">
-        <v>0.87723541401557903</v>
+        <v>0.84948144735296405</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.99846224418386598</v>
+        <v>1.02388577302822</v>
       </c>
       <c r="B7">
-        <v>0.846537755816134</v>
+        <v>0.72611422697177896</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.00791098063884</v>
+        <v>1.0586662178228201</v>
       </c>
       <c r="B8">
-        <v>0.85208901936115899</v>
+        <v>0.72133378217718103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.97340015783738798</v>
+        <v>1.10382036527094</v>
       </c>
       <c r="B9">
-        <v>0.82159984216261195</v>
+        <v>0.79617963472906195</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.98850086128461601</v>
+        <v>1.04289364112144</v>
       </c>
       <c r="B10">
-        <v>0.833999138715384</v>
+        <v>0.74710635887855703</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.0645256450328799</v>
+        <v>1.1110095455697699</v>
       </c>
       <c r="B11">
-        <v>0.90047435496711903</v>
+        <v>0.79899045443023498</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1.04149244211028</v>
+        <v>1.1369810138827601</v>
       </c>
       <c r="B12">
-        <v>0.88350755788972002</v>
+        <v>0.84301898611724402</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1.10202295092407</v>
+        <v>1.0974384283471801</v>
       </c>
       <c r="B13">
-        <v>0.93797704907592905</v>
+        <v>0.78256157165282403</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1.0489765297775</v>
+        <v>1.0920416170892999</v>
       </c>
       <c r="B14">
-        <v>0.888523470222495</v>
+        <v>0.75795838291070305</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1.0478670662569201</v>
+        <v>1.2138915277223199</v>
       </c>
       <c r="B15">
-        <v>0.88963293374308305</v>
+        <v>0.85610847227768005</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.97888513122121301</v>
+        <v>1.2149905424958201</v>
       </c>
       <c r="B16">
-        <v>0.82111486877878703</v>
+        <v>0.90500945750417705</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1.0287329930453599</v>
+        <v>1.26195724703802</v>
       </c>
       <c r="B17">
-        <v>0.86626700695464098</v>
+        <v>0.908042752961983</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0.95986805966760502</v>
+        <v>1.0552104133754601</v>
       </c>
       <c r="B18">
-        <v>0.80013194033239499</v>
+        <v>0.70478958662454005</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.98231975661700899</v>
+        <v>1.05872555784872</v>
       </c>
       <c r="B19">
-        <v>0.83018024338299101</v>
+        <v>0.75127444215127703</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.96557891727615497</v>
+        <v>1.19853888058601</v>
       </c>
       <c r="B20">
-        <v>0.816921082723845</v>
+        <v>0.89146111941398898</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.0816197008902499</v>
+        <v>1.0108647208880801</v>
       </c>
       <c r="B21">
-        <v>0.92588029910974701</v>
+        <v>0.70913527911191998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.10885958931884</v>
+        <v>0.96941296278432099</v>
       </c>
       <c r="B22">
-        <v>0.93614041068115805</v>
+        <v>0.67058703721567903</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1.0546906652333901</v>
+        <v>1.1075052077170899</v>
       </c>
       <c r="B23">
-        <v>0.90280933476661196</v>
+        <v>0.79249479228290798</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1.1999271623682799</v>
+        <v>0.98119025731778498</v>
       </c>
       <c r="B24">
-        <v>1.0200728376317201</v>
+        <v>0.68880974268221495</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1.05000558050745</v>
+        <v>1.1426546264906099</v>
       </c>
       <c r="B25">
-        <v>0.88499441949255098</v>
+        <v>0.79734537350938905</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1.1093473439974799</v>
+        <v>1.1205238355585201</v>
       </c>
       <c r="B26">
-        <v>0.94815265600251597</v>
+        <v>0.78947616444148405</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1.03158223218121</v>
+        <v>0.95308743487701497</v>
       </c>
       <c r="B27">
-        <v>0.87091776781878505</v>
+        <v>0.65691256512298501</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1.03268325253473</v>
+        <v>1.2504162650799699</v>
       </c>
       <c r="B28">
-        <v>0.87481674746527105</v>
+        <v>0.89958373492003296</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1.0388330404113499</v>
+        <v>1.1694596209966699</v>
       </c>
       <c r="B29">
-        <v>0.87616695958864599</v>
+        <v>0.85054037900333301</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1.0454947568767099</v>
+        <v>1.0594656160573299</v>
       </c>
       <c r="B30">
-        <v>0.88200524312328898</v>
+        <v>0.74053438394267002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1.03823723797225</v>
+        <v>1.0590478138310899</v>
       </c>
       <c r="B31">
-        <v>0.88426276202775</v>
+        <v>0.76095218616891203</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1.0467373488349201</v>
+        <v>1.0311938714633799</v>
       </c>
       <c r="B32">
-        <v>0.89326265116508097</v>
+        <v>0.72880612853662097</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1.05004494175271</v>
+        <v>1.01046915122763</v>
       </c>
       <c r="B33">
-        <v>0.88995505824729204</v>
+        <v>0.71953084877236595</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1.03381999773531</v>
+        <v>1.0396255199214799</v>
       </c>
       <c r="B34">
-        <v>0.87118000226469205</v>
+        <v>0.75037448007851804</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1.07072109852021</v>
+        <v>1.05229111004426</v>
       </c>
       <c r="B35">
-        <v>0.901778901479794</v>
+        <v>0.73770888995573702</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1.0459978289487599</v>
+        <v>0.96125446347100796</v>
       </c>
       <c r="B36">
-        <v>0.88150217105123996</v>
+        <v>0.64874553652899203</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.95349196685218296</v>
+        <v>1.1000450568534901</v>
       </c>
       <c r="B37">
-        <v>0.79650803314781704</v>
+        <v>0.79995494314651505</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.98839873112745003</v>
+        <v>1.2075573265683399</v>
       </c>
       <c r="B38">
-        <v>0.84160126887255005</v>
+        <v>0.87244267343165505</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1.0017632180032701</v>
+        <v>1.25365913276332</v>
       </c>
       <c r="B39">
-        <v>0.84073678199672797</v>
+        <v>0.91634086723667896</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1.0642510684346</v>
+        <v>1.0725472187484699</v>
       </c>
       <c r="B40">
-        <v>0.90574893156540004</v>
+        <v>0.74745278125152703</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1.0023488304964701</v>
+        <v>0.97484582020093402</v>
       </c>
       <c r="B41">
-        <v>0.84515116950352598</v>
+        <v>0.675154179799066</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1.0364058582557001</v>
+        <v>1.25252166378065</v>
       </c>
       <c r="B42">
-        <v>0.87859414174430195</v>
+        <v>0.91747833621935404</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1.1129937175306399</v>
+        <v>1.0456809362597099</v>
       </c>
       <c r="B43">
-        <v>0.94450628246935697</v>
+        <v>0.75431906374028701</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1.0216427329222599</v>
+        <v>0.94075530955920195</v>
       </c>
       <c r="B44">
-        <v>0.85835726707774396</v>
+        <v>0.619244690440798</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1.0332041279334401</v>
+        <v>1.16825604411763</v>
       </c>
       <c r="B45">
-        <v>0.87429587206656301</v>
+        <v>0.85174395588237095</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1.1068726591028899</v>
+        <v>1.0814012301167999</v>
       </c>
       <c r="B46">
-        <v>0.94312734089710704</v>
+        <v>0.76859876988319598</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1.0812109254897699</v>
+        <v>1.17707740891616</v>
       </c>
       <c r="B47">
-        <v>0.92128907451023301</v>
+        <v>0.82292259108384302</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.95907163182564403</v>
+        <v>1.14849834121537</v>
       </c>
       <c r="B48">
-        <v>0.80342836817435603</v>
+        <v>0.80150165878462698</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1.0360363455671999</v>
+        <v>1.04573945732986</v>
       </c>
       <c r="B49">
-        <v>0.873963654432799</v>
+        <v>0.76426054267013999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1.0566564457172301</v>
+        <v>1.0443625296289401</v>
       </c>
       <c r="B50">
-        <v>0.89334355428277201</v>
+        <v>0.75563747037105999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1.0852911880974501</v>
+        <v>0.89219404950393399</v>
       </c>
       <c r="B51">
-        <v>0.92470881190255105</v>
+        <v>0.60780595049606601</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1.0477832637414</v>
+        <v>1.2548829547895799</v>
       </c>
       <c r="B52">
-        <v>0.88471673625860203</v>
+        <v>0.92511704521041804</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0.93463850174904095</v>
+        <v>0.97257857490351796</v>
       </c>
       <c r="B53">
-        <v>0.78036149825096002</v>
+        <v>0.66742142509648195</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1.0024234910984999</v>
+        <v>1.06657067900839</v>
       </c>
       <c r="B54">
-        <v>0.85007650890150099</v>
+        <v>0.77342932099160699</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1.0195539941292699</v>
+        <v>1.1329219390010401</v>
       </c>
       <c r="B55">
-        <v>0.857946005870727</v>
+        <v>0.81707806099895697</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0.96738885644206496</v>
+        <v>0.92179683043664395</v>
       </c>
       <c r="B56">
-        <v>0.81261114355793496</v>
+        <v>0.63820316956335599</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1.0162629114144399</v>
+        <v>1.27923206152788</v>
       </c>
       <c r="B57">
-        <v>0.85373708858556097</v>
+        <v>0.94076793847212503</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1.0060100146030999</v>
+        <v>1.0871503504689199</v>
       </c>
       <c r="B58">
-        <v>0.85148998539690002</v>
+        <v>0.78284964953108005</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1.00379169860377</v>
+        <v>1.12620197510894</v>
       </c>
       <c r="B59">
-        <v>0.84620830139622505</v>
+        <v>0.78379802489106198</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1.0127653317753</v>
+        <v>1.12056489751777</v>
       </c>
       <c r="B60">
-        <v>0.85473466822470001</v>
+        <v>0.79943510248222904</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.0126160332544301</v>
+        <v>0.98646781484637702</v>
       </c>
       <c r="B61">
-        <v>0.85488396674556999</v>
+        <v>0.72353218515362305</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1.03559885197738</v>
+        <v>1.1969519054646101</v>
       </c>
       <c r="B62">
-        <v>0.87440114802262403</v>
+        <v>0.88304809453538602</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1.08220243071554</v>
+        <v>1.0678693990439601</v>
       </c>
       <c r="B63">
-        <v>0.922797569284458</v>
+        <v>0.77213060095604202</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>0.97542335799982804</v>
+        <v>1.13355567314983</v>
       </c>
       <c r="B64">
-        <v>0.81207664200017204</v>
+        <v>0.80644432685016998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1.0472453019538099</v>
+        <v>1.22019327758497</v>
       </c>
       <c r="B65">
-        <v>0.88775469804618801</v>
+        <v>0.84980672241502897</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1.0026617400128801</v>
+        <v>1.1688589724066001</v>
       </c>
       <c r="B66">
-        <v>0.84733825998711698</v>
+        <v>0.85114102759340104</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1.07273309971915</v>
+        <v>0.96016942194184396</v>
       </c>
       <c r="B67">
-        <v>0.90476690028084805</v>
+        <v>0.67983057805815605</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>0.99381861855321396</v>
+        <v>0.89912888439768501</v>
       </c>
       <c r="B68">
-        <v>0.836181381446786</v>
+        <v>0.620871115602315</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1.01209124782857</v>
+        <v>1.13457054662972</v>
       </c>
       <c r="B69">
-        <v>0.85540875217143197</v>
+        <v>0.82542945337027496</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1.0230994837437599</v>
+        <v>1.08675319170972</v>
       </c>
       <c r="B70">
-        <v>0.86440051625624004</v>
+        <v>0.79324680829027605</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0.98627879620137104</v>
+        <v>1.0112226014124699</v>
       </c>
       <c r="B71">
-        <v>0.82872120379862901</v>
+        <v>0.72877739858752599</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1.1035941386486099</v>
+        <v>1.1009737156213999</v>
       </c>
       <c r="B72">
-        <v>0.93890586135138498</v>
+        <v>0.76902628437860299</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.0323124746635299</v>
+        <v>0.98184273543134504</v>
       </c>
       <c r="B73">
-        <v>0.87018752533646504</v>
+        <v>0.688157264568655</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1.06273922490481</v>
+        <v>1.18126438759132</v>
       </c>
       <c r="B74">
-        <v>0.90476077509518604</v>
+        <v>0.82873561240867599</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1.01937366249456</v>
+        <v>1.1776326170467599</v>
       </c>
       <c r="B75">
-        <v>0.86062633750544204</v>
+        <v>0.862367382953237</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1.05114375819532</v>
+        <v>1.10518190237256</v>
       </c>
       <c r="B76">
-        <v>0.89635624180468498</v>
+        <v>0.78481809762744104</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1.0470710723426599</v>
+        <v>1.1773763770699699</v>
       </c>
       <c r="B77">
-        <v>0.88292892765734199</v>
+        <v>0.87262362293002804</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1.0113983896816301</v>
+        <v>1.1169342753514799</v>
       </c>
       <c r="B78">
-        <v>0.85360161031836801</v>
+        <v>0.78306572464852398</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1.08716221954711</v>
+        <v>1.1459060232706699</v>
       </c>
       <c r="B79">
-        <v>0.92533778045288595</v>
+        <v>0.81409397672932504</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1.0570011041105301</v>
+        <v>1.13710404719836</v>
       </c>
       <c r="B80">
-        <v>0.89549889588946796</v>
+        <v>0.81289595280163995</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>0.99123090794325996</v>
+        <v>1.01585167603589</v>
       </c>
       <c r="B81">
-        <v>0.83376909205673999</v>
+        <v>0.70414832396410598</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.95263543660489403</v>
+        <v>0.95195181074284296</v>
       </c>
       <c r="B82">
-        <v>0.80236456339510598</v>
+        <v>0.66804818925715703</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1.00340792140781</v>
+        <v>1.1138970279859599</v>
       </c>
       <c r="B83">
-        <v>0.85159207859219099</v>
+        <v>0.77610297201403999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1.00280931936618</v>
+        <v>1.15476358633202</v>
       </c>
       <c r="B84">
-        <v>0.84969068063381903</v>
+        <v>0.83523641366798296</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1.0236444426439799</v>
+        <v>0.99219404950393397</v>
       </c>
       <c r="B85">
-        <v>0.86135555735602398</v>
+        <v>0.70780595049606598</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1.0524755253335001</v>
+        <v>1.1549890157101901</v>
       </c>
       <c r="B86">
-        <v>0.89252447466650298</v>
+        <v>0.79501098428980599</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1.0354289420838001</v>
+        <v>1.0719138323350701</v>
       </c>
       <c r="B87">
-        <v>0.87957105791619705</v>
+        <v>0.75808616766493098</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0.97005752672265</v>
+        <v>0.93606759319559996</v>
       </c>
       <c r="B88">
-        <v>0.81494247327735003</v>
+        <v>0.6439324068044</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1.02903439366542</v>
+        <v>1.1835848956970401</v>
       </c>
       <c r="B89">
-        <v>0.87096560633458397</v>
+        <v>0.85641510430296397</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1.07186927547175</v>
+        <v>1.19101341200727</v>
       </c>
       <c r="B90">
-        <v>0.910630724528252</v>
+        <v>0.84898658799272897</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1.0066143820884501</v>
+        <v>0.97630001042347503</v>
       </c>
       <c r="B91">
-        <v>0.85338561791155298</v>
+        <v>0.65369998957652498</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1.0433988173295701</v>
+        <v>1.0433692680176501</v>
       </c>
       <c r="B92">
-        <v>0.88660118267042798</v>
+        <v>0.72663073198235095</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1.1012399997159601</v>
+        <v>1.2009854590474101</v>
       </c>
       <c r="B93">
-        <v>0.936260000284037</v>
+        <v>0.859014540952593</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>0.97910447590814598</v>
+        <v>1.1131954595162601</v>
       </c>
       <c r="B94">
-        <v>0.82839552409185402</v>
+        <v>0.75680454048374401</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1.03655508156558</v>
+        <v>1.1594809546185401</v>
       </c>
       <c r="B95">
-        <v>0.87844491843442196</v>
+        <v>0.83051904538145804</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>0.99085577343049003</v>
+        <v>1.1034742635511201</v>
       </c>
       <c r="B96">
-        <v>0.83414422656951004</v>
+        <v>0.80652573644888403</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1.0632951055556501</v>
+        <v>1.0278336794396199</v>
       </c>
       <c r="B97">
-        <v>0.90170489444434898</v>
+        <v>0.70216632056037998</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1.0212114450160501</v>
+        <v>1.079556630201</v>
       </c>
       <c r="B98">
-        <v>0.86378855498395002</v>
+        <v>0.77044336979899597</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1.0098066588282899</v>
+        <v>1.2431823328071301</v>
       </c>
       <c r="B99">
-        <v>0.84769334117171302</v>
+        <v>0.90681766719287404</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1.0396866140299399</v>
+        <v>1.02533225585832</v>
       </c>
       <c r="B100">
-        <v>0.87781338597006298</v>
+        <v>0.75466774414168203</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1.00700475281014</v>
+        <v>1.0562175805871199</v>
       </c>
       <c r="B101">
-        <v>0.84549524718986002</v>
+        <v>0.75378241941288204</v>
       </c>
     </row>
   </sheetData>
